--- a/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/captain_kyle/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="5310"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15660" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="province_log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>game_number</t>
   </si>
@@ -64,6 +72,9 @@
   </si>
   <si>
     <t>Tax+4:Prussia;Sail+3:Windy</t>
+  </si>
+  <si>
+    <t>Tax+4:Prussia;Sail+3:Windy;Advisors:Patmoss</t>
   </si>
 </sst>
 </file>
@@ -870,13 +881,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -928,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -948,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -968,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -988,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1011,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1034,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1115,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1142,6 +1155,35 @@
       </c>
       <c r="J11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kyle/Documents/GitHub/boardgame-bookie/boardgames/seafall/captains_log/captain_kyle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karhohs\Documents\GitHub\boardgame-bookie\boardgames\seafall\captains_log\captain_kyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15660" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="15660" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="province_log" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>game_number</t>
   </si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Tax+4:Prussia;Sail+3:Windy;Advisors:Patmoss</t>
+  </si>
+  <si>
+    <t>Tax+4:Prussia;Sail+3:Windy;Advisors:Patmos</t>
+  </si>
+  <si>
+    <t>Wise</t>
   </si>
 </sst>
 </file>
@@ -881,15 +884,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A13" sqref="A13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -941,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,7 +964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -981,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1184,6 +1187,64 @@
       </c>
       <c r="J12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
+++ b/boardgames/seafall/captains_log/captain_kyle/province_log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>game_number</t>
   </si>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,6 +1247,35 @@
         <v>16</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
